--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Dashboard</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Masih menunggu testing</t>
-  </si>
-  <si>
     <t>Manage Role</t>
   </si>
   <si>
@@ -85,6 +82,12 @@
   </si>
   <si>
     <t>Baru hanya UI</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Baru Add</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -624,13 +627,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -648,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -678,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" ref="D5:D7" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
@@ -688,7 +691,7 @@
         <v>0.1</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -706,9 +709,9 @@
         <v>Manage Menu '(CRUD)'</v>
       </c>
       <c r="E6" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -720,16 +723,18 @@
         <v>8</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Manage SubMenu '(CRUD)'</v>
       </c>
       <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19"/>
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -838,7 +843,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="5">
         <f>AVERAGE(E3:E15)</f>
-        <v>9.2307692307692327E-2</v>
+        <v>0.18076923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Dashboard</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Baru Add</t>
   </si>
 </sst>
 </file>
@@ -730,10 +727,10 @@
         <v>Manage SubMenu '(CRUD)'</v>
       </c>
       <c r="E7" s="14">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -843,7 +840,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="5">
         <f>AVERAGE(E3:E15)</f>
-        <v>0.18076923076923077</v>
+        <v>0.23846153846153847</v>
       </c>
     </row>
   </sheetData>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
   </bookViews>
   <sheets>
-    <sheet name="Marco" sheetId="1" r:id="rId1"/>
-    <sheet name="Fahrul" sheetId="3" r:id="rId2"/>
+    <sheet name="USER" sheetId="4" r:id="rId1"/>
+    <sheet name="Marco" sheetId="1" r:id="rId2"/>
+    <sheet name="Fahrul" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marco!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marco!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Dashboard</t>
   </si>
@@ -85,6 +86,24 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
   </si>
 </sst>
 </file>
@@ -177,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +252,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,10 +605,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="22">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="22">
+        <v>12345</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +1025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Fahrul" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marco!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Marco!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Dashboard</t>
   </si>
@@ -104,20 +104,28 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>List Material</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Manage Storage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,17 +200,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -238,23 +245,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,12 +264,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -607,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -620,86 +655,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>12345</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>12345</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,10 +744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,10 +757,10 @@
     <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -761,13 +796,13 @@
       <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>8</v>
@@ -779,13 +814,13 @@
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -800,11 +835,11 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>3</v>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -813,19 +848,19 @@
         <v>12</v>
       </c>
       <c r="D5" s="11" t="str">
-        <f t="shared" ref="D5:D7" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
+        <f t="shared" ref="D5:D10" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
         <v>Manage Role '(CRUD)'</v>
       </c>
       <c r="E5" s="14">
         <v>0.1</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -840,13 +875,13 @@
       <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -861,131 +896,172 @@
       <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Manage Storage '(CRUD)'</v>
+      </c>
       <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
       <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="11"/>
       <c r="E13" s="14">
         <v>0</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="11"/>
       <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f>CONCATENATE(C15," ","'(CRUD)'")</f>
+        <v>List Material '(CRUD)'</v>
+      </c>
       <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="5">
-        <f>AVERAGE(E3:E15)</f>
-        <v>0.23846153846153847</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="5">
+        <f>AVERAGE(E3:E16)</f>
+        <v>0.29285714285714282</v>
+      </c>
+      <c r="F17" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:F1"/>
   <mergeCells count="1">
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="E5:E16">
     <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
       <formula>0%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E1048576 E1:E5">
+  <conditionalFormatting sqref="E18:E1048576 E1:E16">
     <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -999,28 +1075,9 @@
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E15">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>0%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="lessThan">
-      <formula>60</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E16" formulaRange="1"/>
+    <ignoredError sqref="E17" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Dashboard</t>
   </si>
@@ -119,13 +119,19 @@
   </si>
   <si>
     <t>Manage Storage</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Read, Update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +141,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -143,7 +156,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -203,137 +216,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -655,86 +607,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="5">
         <v>12345</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="5">
         <v>12345</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,297 +698,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12">
-        <v>0</v>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="14" t="str">
         <f>CONCATENATE(C4," ","'(CRUD)'")</f>
         <v>Manage User '(CRUD)'</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="str">
-        <f t="shared" ref="D5:D10" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
+      <c r="D5" s="14" t="str">
+        <f t="shared" ref="D5:D8" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
         <v>Manage Role '(CRUD)'</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="19">
         <v>0.1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Manage Menu '(CRUD)'</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>Manage SubMenu '(CRUD)'</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="19">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Manage Storage '(CRUD)'</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="14">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="14">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19">
         <v>0</v>
       </c>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="14">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14">
+      <c r="C12" s="18"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19">
         <v>0</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14">
+      <c r="C13" s="18"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="19">
         <v>0</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14">
+      <c r="C14" s="18"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="19">
         <v>0</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="14" t="str">
         <f>CONCATENATE(C15," ","'(CRUD)'")</f>
         <v>List Material '(CRUD)'</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14" t="str">
+        <f>CONCATENATE(C16," ","'(CRUD)'")</f>
+        <v>BOM '(CRUD)'</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -1045,11 +1004,11 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="5">
+      <c r="E17" s="23">
         <f>AVERAGE(E3:E16)</f>
-        <v>0.29285714285714282</v>
-      </c>
-      <c r="F17" s="24"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F17" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
@@ -1057,15 +1016,15 @@
     <mergeCell ref="A17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E16">
-    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>0%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E1048576 E1:E16">
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
       <formula>100</formula>
     </cfRule>
     <cfRule type="cellIs" priority="25" operator="lessThan">
@@ -1076,6 +1035,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E17" formulaRange="1"/>
   </ignoredErrors>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Dashboard</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Read, Update</t>
+  </si>
+  <si>
+    <t>Material Request</t>
+  </si>
+  <si>
+    <t>Baru hanya UI, Logic</t>
+  </si>
+  <si>
+    <t>Kitting</t>
+  </si>
+  <si>
+    <t>Kanban Box</t>
+  </si>
+  <si>
+    <t>UI, Logic</t>
   </si>
 </sst>
 </file>
@@ -275,10 +290,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +714,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f t="shared" ref="D5:D8" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
+        <f t="shared" ref="D5:D11" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
         <v>Manage Role '(CRUD)'</v>
       </c>
       <c r="E5" s="19">
@@ -878,12 +893,19 @@
       <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Material Request '(CRUD)'</v>
+      </c>
       <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21"/>
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -892,8 +914,13 @@
       <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Kitting '(CRUD)'</v>
+      </c>
       <c r="E10" s="19">
         <v>0</v>
       </c>
@@ -906,12 +933,19 @@
       <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Kanban Box '(CRUD)'</v>
+      </c>
       <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -922,9 +956,7 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -936,9 +968,7 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -950,9 +980,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -998,15 +1026,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22">
         <f>AVERAGE(E3:E16)</f>
-        <v>0.39999999999999997</v>
+        <v>0.57272727272727275</v>
       </c>
       <c r="F17" s="21"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Dashboard</t>
   </si>
@@ -124,9 +124,6 @@
     <t>BOM</t>
   </si>
   <si>
-    <t>Read, Update</t>
-  </si>
-  <si>
     <t>Material Request</t>
   </si>
   <si>
@@ -140,6 +137,15 @@
   </si>
   <si>
     <t>UI, Logic</t>
+  </si>
+  <si>
+    <t>Material Return</t>
+  </si>
+  <si>
+    <t>Return to warehouse</t>
+  </si>
+  <si>
+    <t>Add Material's BOM, Search BOM,</t>
   </si>
 </sst>
 </file>
@@ -713,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="14" t="str">
-        <f t="shared" ref="D5:D11" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
+        <f t="shared" ref="D5:D14" si="0">CONCATENATE(C5," ","'(CRUD)'")</f>
         <v>Manage Role '(CRUD)'</v>
       </c>
       <c r="E5" s="19">
@@ -894,7 +900,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -904,7 +910,7 @@
         <v>0.2</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -915,7 +921,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -934,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -944,7 +950,7 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -954,9 +960,16 @@
       <c r="B12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Material Return '(CRUD)'</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -966,9 +979,16 @@
       <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Material Request '(CRUD)'</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -978,9 +998,16 @@
       <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Return to warehouse '(CRUD)'</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1022,7 +1049,7 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,7 +1061,7 @@
       <c r="D17" s="23"/>
       <c r="E17" s="22">
         <f>AVERAGE(E3:E16)</f>
-        <v>0.57272727272727275</v>
+        <v>0.45</v>
       </c>
       <c r="F17" s="21"/>
     </row>

--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -145,7 +145,7 @@
     <t>Return to warehouse</t>
   </si>
   <si>
-    <t>Add Material's BOM, Search BOM,</t>
+    <t>Add Material's BOM, Search BOM, Delete BOM,</t>
   </si>
 </sst>
 </file>
@@ -719,18 +719,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
